--- a/testdata/Smoke_WEB_MED_044_NEWREPORT_02.xlsx
+++ b/testdata/Smoke_WEB_MED_044_NEWREPORT_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3BE217-1E5D-4915-87A3-E32DA4C5CAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7340C33-0061-4D1F-85F4-7838A7640561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="840" windowWidth="14220" windowHeight="8990" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="950" windowWidth="14220" windowHeight="8990" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -1486,8 +1486,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:CM5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
